--- a/out/test/Figori_algorithm_24.xlsx
+++ b/out/test/Figori_algorithm_24.xlsx
@@ -395,1671 +395,1671 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="B1">
-        <v>0.71650000000000003</v>
+        <v>0.68559999999999999</v>
       </c>
       <c r="C1">
-        <v>0.68110000000000004</v>
+        <v>0.73460000000000003</v>
       </c>
       <c r="D1">
-        <v>0.76770000000000005</v>
+        <v>0.71675</v>
       </c>
       <c r="E1">
-        <v>0.73870000000000002</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="F1">
-        <v>0.77910000000000001</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="G1">
-        <v>0.69784999999999997</v>
+        <v>0.76649999999999996</v>
       </c>
       <c r="H1">
-        <v>0.72055000000000002</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="I1">
-        <v>0.74229999999999996</v>
+        <v>0.75029999999999997</v>
       </c>
       <c r="J1">
-        <v>0.73899999999999999</v>
+        <v>0.75024999999999997</v>
       </c>
       <c r="K1">
-        <v>0.68269999999999997</v>
+        <v>0.68254999999999999</v>
       </c>
       <c r="L1">
-        <v>0.74634999999999996</v>
+        <v>0.74770000000000003</v>
       </c>
       <c r="M1">
-        <v>0.77664999999999995</v>
+        <v>0.77259999999999995</v>
       </c>
       <c r="N1">
-        <v>0.68754999999999999</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="O1">
-        <v>0.70584999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="P1">
-        <v>0.71479999999999999</v>
+        <v>0.71684999999999999</v>
       </c>
       <c r="Q1">
-        <v>0.71519999999999995</v>
+        <v>0.74455000000000005</v>
       </c>
       <c r="R1">
-        <v>0.73834999999999995</v>
+        <v>0.73129999999999995</v>
       </c>
       <c r="S1">
-        <v>0.68820000000000003</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="T1">
-        <v>0.77010000000000001</v>
+        <v>0.77480000000000004</v>
       </c>
       <c r="U1">
-        <v>0.73250000000000004</v>
+        <v>0.71714999999999995</v>
       </c>
       <c r="V1">
-        <v>0.7157</v>
+        <v>0.76915</v>
       </c>
       <c r="W1">
-        <v>0.76770000000000005</v>
+        <v>0.74019999999999997</v>
       </c>
       <c r="X1">
-        <v>0.71394999999999997</v>
+        <v>0.71709999999999996</v>
       </c>
       <c r="Y1">
-        <v>0.72829999999999995</v>
+        <v>0.69464999999999999</v>
       </c>
       <c r="Z1">
-        <v>0.79239999999999999</v>
+        <v>0.7833</v>
       </c>
       <c r="AA1">
-        <v>0.71894999999999998</v>
+        <v>0.73089999999999999</v>
       </c>
       <c r="AB1">
-        <v>0.70809999999999995</v>
+        <v>0.74534999999999996</v>
       </c>
       <c r="AC1">
-        <v>0.73609999999999998</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AD1">
-        <v>0.75319999999999998</v>
+        <v>0.75844999999999996</v>
       </c>
       <c r="AE1">
-        <v>0.73660000000000003</v>
+        <v>0.74</v>
       </c>
       <c r="AF1">
-        <v>0.68030000000000002</v>
+        <v>0.68859999999999999</v>
       </c>
       <c r="AG1">
-        <v>0.74955000000000005</v>
+        <v>0.72170000000000001</v>
       </c>
       <c r="AH1">
-        <v>0.74</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="AI1">
-        <v>0.7399</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="AJ1">
-        <v>0.74319999999999997</v>
+        <v>0.7661</v>
       </c>
       <c r="AK1">
-        <v>0.7571</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="AL1">
-        <v>0.76439999999999997</v>
+        <v>0.75780000000000003</v>
       </c>
       <c r="AM1">
-        <v>0.74480000000000002</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="AN1">
-        <v>0.71950000000000003</v>
+        <v>0.74360000000000004</v>
       </c>
       <c r="AO1">
-        <v>0.71945000000000003</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="AP1">
-        <v>0.76885000000000003</v>
+        <v>0.73580000000000001</v>
       </c>
       <c r="AQ1">
-        <v>0.76390000000000002</v>
+        <v>0.74160000000000004</v>
       </c>
       <c r="AR1">
-        <v>0.77600000000000002</v>
+        <v>0.75260000000000005</v>
       </c>
       <c r="AS1">
-        <v>0.77910000000000001</v>
+        <v>0.78420000000000001</v>
       </c>
       <c r="AT1">
-        <v>0.76595000000000002</v>
+        <v>0.73380000000000001</v>
       </c>
       <c r="AU1">
-        <v>0.71975</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="AV1">
-        <v>0.68820000000000003</v>
+        <v>0.74134999999999995</v>
       </c>
       <c r="AW1">
-        <v>0.77200000000000002</v>
+        <v>0.69679999999999997</v>
       </c>
       <c r="AX1">
-        <v>0.71714999999999995</v>
+        <v>0.71809999999999996</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.72670000000000001</v>
+        <v>0.65749999999999997</v>
       </c>
       <c r="B2">
-        <v>0.69084999999999996</v>
+        <v>0.64115</v>
       </c>
       <c r="C2">
-        <v>0.51770000000000005</v>
+        <v>0.71489999999999998</v>
       </c>
       <c r="D2">
-        <v>0.73985000000000001</v>
+        <v>0.75139999999999996</v>
       </c>
       <c r="E2">
-        <v>0.80369999999999997</v>
+        <v>0.71389999999999998</v>
       </c>
       <c r="F2">
-        <v>0.82450000000000001</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="G2">
-        <v>0.62250000000000005</v>
+        <v>0.7389</v>
       </c>
       <c r="H2">
-        <v>0.76895000000000002</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="I2">
-        <v>0.83579999999999999</v>
+        <v>0.78049999999999997</v>
       </c>
       <c r="J2">
-        <v>0.71440000000000003</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="K2">
-        <v>0.64175000000000004</v>
+        <v>0.72740000000000005</v>
       </c>
       <c r="L2">
-        <v>0.73380000000000001</v>
+        <v>0.71525000000000005</v>
       </c>
       <c r="M2">
-        <v>0.73180000000000001</v>
+        <v>0.75619999999999998</v>
       </c>
       <c r="N2">
-        <v>0.68179999999999996</v>
+        <v>0.75990000000000002</v>
       </c>
       <c r="O2">
-        <v>0.71879999999999999</v>
+        <v>0.66049999999999998</v>
       </c>
       <c r="P2">
-        <v>0.70704999999999996</v>
+        <v>0.64095000000000002</v>
       </c>
       <c r="Q2">
-        <v>0.64019999999999999</v>
+        <v>0.74819999999999998</v>
       </c>
       <c r="R2">
-        <v>0.83125000000000004</v>
+        <v>0.66449999999999998</v>
       </c>
       <c r="S2">
-        <v>0.62170000000000003</v>
+        <v>0.7198</v>
       </c>
       <c r="T2">
-        <v>0.82430000000000003</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="U2">
-        <v>0.84399999999999997</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="V2">
-        <v>0.81474999999999997</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="W2">
-        <v>0.74929999999999997</v>
+        <v>0.70630000000000004</v>
       </c>
       <c r="X2">
-        <v>0.71235000000000004</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="Y2">
-        <v>0.69240000000000002</v>
+        <v>0.7379</v>
       </c>
       <c r="Z2">
-        <v>0.76400000000000001</v>
+        <v>0.73729999999999996</v>
       </c>
       <c r="AA2">
-        <v>0.65780000000000005</v>
+        <v>0.76229999999999998</v>
       </c>
       <c r="AB2">
-        <v>0.68289999999999995</v>
+        <v>0.70604999999999996</v>
       </c>
       <c r="AC2">
-        <v>0.7036</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="AD2">
-        <v>0.64990000000000003</v>
+        <v>0.7268</v>
       </c>
       <c r="AE2">
-        <v>0.70920000000000005</v>
+        <v>0.71450000000000002</v>
       </c>
       <c r="AF2">
-        <v>0.83160000000000001</v>
+        <v>0.68079999999999996</v>
       </c>
       <c r="AG2">
-        <v>0.70760000000000001</v>
+        <v>0.81774999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.83909999999999996</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.74860000000000004</v>
+        <v>0.56710000000000005</v>
       </c>
       <c r="AJ2">
-        <v>0.66420000000000001</v>
+        <v>0.72635000000000005</v>
       </c>
       <c r="AK2">
-        <v>0.73899999999999999</v>
+        <v>0.69110000000000005</v>
       </c>
       <c r="AL2">
-        <v>0.84640000000000004</v>
+        <v>0.69430000000000003</v>
       </c>
       <c r="AM2">
-        <v>0.71109999999999995</v>
+        <v>0.7571</v>
       </c>
       <c r="AN2">
-        <v>0.78879999999999995</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="AO2">
-        <v>0.64500000000000002</v>
+        <v>0.57889999999999997</v>
       </c>
       <c r="AP2">
-        <v>0.65605000000000002</v>
+        <v>0.66180000000000005</v>
       </c>
       <c r="AQ2">
-        <v>0.73580000000000001</v>
+        <v>0.82730000000000004</v>
       </c>
       <c r="AR2">
-        <v>0.75014999999999998</v>
+        <v>0.86119999999999997</v>
       </c>
       <c r="AS2">
-        <v>0.76749999999999996</v>
+        <v>0.74850000000000005</v>
       </c>
       <c r="AT2">
-        <v>0.71799999999999997</v>
+        <v>0.81220000000000003</v>
       </c>
       <c r="AU2">
-        <v>0.64124999999999999</v>
+        <v>0.6613</v>
       </c>
       <c r="AV2">
-        <v>0.59299999999999997</v>
+        <v>0.85185</v>
       </c>
       <c r="AW2">
-        <v>0.80649999999999999</v>
+        <v>0.69479999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.79349999999999998</v>
+        <v>0.64980000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.76959999999999995</v>
+        <v>0.59030000000000005</v>
       </c>
       <c r="B3">
-        <v>0.81140000000000001</v>
+        <v>0.68774999999999997</v>
       </c>
       <c r="C3">
-        <v>0.45660000000000001</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="D3">
-        <v>0.80864999999999998</v>
+        <v>0.76380000000000003</v>
       </c>
       <c r="E3">
-        <v>0.92559999999999998</v>
+        <v>0.68610000000000004</v>
       </c>
       <c r="F3">
-        <v>0.76039999999999996</v>
+        <v>0.78034999999999999</v>
       </c>
       <c r="G3">
-        <v>0.39350000000000002</v>
+        <v>0.81620000000000004</v>
       </c>
       <c r="H3">
-        <v>0.59760000000000002</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="I3">
-        <v>0.92610000000000003</v>
+        <v>0.71860000000000002</v>
       </c>
       <c r="J3">
-        <v>0.65510000000000002</v>
+        <v>0.7702</v>
       </c>
       <c r="K3">
-        <v>0.76419999999999999</v>
+        <v>0.76839999999999997</v>
       </c>
       <c r="L3">
-        <v>0.62960000000000005</v>
+        <v>0.72260000000000002</v>
       </c>
       <c r="M3">
-        <v>0.70420000000000005</v>
+        <v>0.68340000000000001</v>
       </c>
       <c r="N3">
+        <v>0.7681</v>
+      </c>
+      <c r="O3">
+        <v>0.72560000000000002</v>
+      </c>
+      <c r="P3">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="Q3">
+        <v>0.65839999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="S3">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="T3">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="U3">
         <v>0.58809999999999996</v>
       </c>
-      <c r="O3">
-        <v>0.70979999999999999</v>
-      </c>
-      <c r="P3">
-        <v>0.76685000000000003</v>
-      </c>
-      <c r="Q3">
-        <v>0.70520000000000005</v>
-      </c>
-      <c r="R3">
-        <v>0.80189999999999995</v>
-      </c>
-      <c r="S3">
-        <v>0.62180000000000002</v>
-      </c>
-      <c r="T3">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="U3">
-        <v>0.7399</v>
-      </c>
       <c r="V3">
-        <v>0.83930000000000005</v>
+        <v>0.62770000000000004</v>
       </c>
       <c r="W3">
-        <v>0.85245000000000004</v>
+        <v>0.78110000000000002</v>
       </c>
       <c r="X3">
-        <v>0.78010000000000002</v>
+        <v>0.48039999999999999</v>
       </c>
       <c r="Y3">
-        <v>0.5857</v>
+        <v>0.8468</v>
       </c>
       <c r="Z3">
-        <v>0.67459999999999998</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="AA3">
-        <v>0.65559999999999996</v>
+        <v>0.83240000000000003</v>
       </c>
       <c r="AB3">
-        <v>0.73580000000000001</v>
+        <v>0.54669999999999996</v>
       </c>
       <c r="AC3">
-        <v>0.76590000000000003</v>
+        <v>0.79379999999999995</v>
       </c>
       <c r="AD3">
-        <v>0.70009999999999994</v>
+        <v>0.61729999999999996</v>
       </c>
       <c r="AE3">
-        <v>0.72970000000000002</v>
+        <v>0.53349999999999997</v>
       </c>
       <c r="AF3">
-        <v>0.83209999999999995</v>
+        <v>0.53739999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.75609999999999999</v>
+        <v>0.68789999999999996</v>
       </c>
       <c r="AH3">
-        <v>0.79074999999999995</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AI3">
-        <v>0.74285000000000001</v>
+        <v>0.56540000000000001</v>
       </c>
       <c r="AJ3">
-        <v>0.62509999999999999</v>
+        <v>0.71260000000000001</v>
       </c>
       <c r="AK3">
-        <v>0.76570000000000005</v>
+        <v>0.74109999999999998</v>
       </c>
       <c r="AL3">
-        <v>0.83919999999999995</v>
+        <v>0.70989999999999998</v>
       </c>
       <c r="AM3">
-        <v>0.71089999999999998</v>
+        <v>0.83389999999999997</v>
       </c>
       <c r="AN3">
-        <v>0.68799999999999994</v>
+        <v>0.68574999999999997</v>
       </c>
       <c r="AO3">
-        <v>0.57599999999999996</v>
+        <v>0.59409999999999996</v>
       </c>
       <c r="AP3">
-        <v>0.64339999999999997</v>
+        <v>0.64510000000000001</v>
       </c>
       <c r="AQ3">
-        <v>0.75680000000000003</v>
+        <v>0.77390000000000003</v>
       </c>
       <c r="AR3">
-        <v>0.84379999999999999</v>
+        <v>0.6774</v>
       </c>
       <c r="AS3">
-        <v>0.71730000000000005</v>
+        <v>0.69059999999999999</v>
       </c>
       <c r="AT3">
-        <v>0.62060000000000004</v>
+        <v>0.93230000000000002</v>
       </c>
       <c r="AU3">
-        <v>0.62280000000000002</v>
+        <v>0.74170000000000003</v>
       </c>
       <c r="AV3">
-        <v>0.48880000000000001</v>
+        <v>0.79390000000000005</v>
       </c>
       <c r="AW3">
-        <v>0.71789999999999998</v>
+        <v>0.57974999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.39995000000000003</v>
+        <v>0.7177</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.87929999999999997</v>
+        <v>0.60209999999999997</v>
       </c>
       <c r="B4">
-        <v>0.7722</v>
+        <v>0.51890000000000003</v>
       </c>
       <c r="C4">
-        <v>0.39900000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D4">
-        <v>0.73329999999999995</v>
+        <v>0.72409999999999997</v>
       </c>
       <c r="E4">
-        <v>0.89344999999999997</v>
+        <v>0.6673</v>
       </c>
       <c r="F4">
-        <v>0.76180000000000003</v>
+        <v>0.93289999999999995</v>
       </c>
       <c r="G4">
-        <v>0.45660000000000001</v>
+        <v>0.70209999999999995</v>
       </c>
       <c r="H4">
-        <v>0.5252</v>
+        <v>0.72440000000000004</v>
       </c>
       <c r="I4">
-        <v>0.91669999999999996</v>
+        <v>0.6633</v>
       </c>
       <c r="J4">
-        <v>0.6583</v>
+        <v>0.65029999999999999</v>
       </c>
       <c r="K4">
-        <v>0.85589999999999999</v>
+        <v>0.82620000000000005</v>
       </c>
       <c r="L4">
-        <v>0.67269999999999996</v>
+        <v>0.7167</v>
       </c>
       <c r="M4">
-        <v>0.93269999999999997</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="N4">
-        <v>0.4652</v>
+        <v>0.75570000000000004</v>
       </c>
       <c r="O4">
-        <v>0.82720000000000005</v>
+        <v>0.59960000000000002</v>
       </c>
       <c r="P4">
-        <v>0.69359999999999999</v>
+        <v>0.54290000000000005</v>
       </c>
       <c r="Q4">
-        <v>0.70569999999999999</v>
+        <v>0.67679999999999996</v>
       </c>
       <c r="R4">
-        <v>0.91920000000000002</v>
+        <v>0.71079999999999999</v>
       </c>
       <c r="S4">
-        <v>0.79710000000000003</v>
+        <v>0.41930000000000001</v>
       </c>
       <c r="T4">
-        <v>0.69269999999999998</v>
+        <v>0.77310000000000001</v>
       </c>
       <c r="U4">
-        <v>0.80720000000000003</v>
+        <v>0.58630000000000004</v>
       </c>
       <c r="V4">
-        <v>0.75800000000000001</v>
+        <v>0.58774999999999999</v>
       </c>
       <c r="W4">
-        <v>0.76295000000000002</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="X4">
-        <v>0.69359999999999999</v>
+        <v>0.40360000000000001</v>
       </c>
       <c r="Y4">
-        <v>0.5726</v>
+        <v>0.72989999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.65229999999999999</v>
+        <v>0.80449999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.56130000000000002</v>
+        <v>0.7046</v>
       </c>
       <c r="AB4">
-        <v>0.61650000000000005</v>
+        <v>0.53420000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.89229999999999998</v>
+        <v>0.76529999999999998</v>
       </c>
       <c r="AD4">
-        <v>0.69569999999999999</v>
+        <v>0.65469999999999995</v>
       </c>
       <c r="AE4">
-        <v>0.70860000000000001</v>
+        <v>0.53090000000000004</v>
       </c>
       <c r="AF4">
-        <v>0.92430000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="AG4">
-        <v>0.72</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="AH4">
-        <v>0.67900000000000005</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="AI4">
-        <v>0.71789999999999998</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="AJ4">
-        <v>0.62529999999999997</v>
+        <v>0.78879999999999995</v>
       </c>
       <c r="AK4">
-        <v>0.71989999999999998</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="AL4">
-        <v>0.76654999999999995</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="AM4">
-        <v>0.60924999999999996</v>
+        <v>0.83260000000000001</v>
       </c>
       <c r="AN4">
-        <v>0.49630000000000002</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="AO4">
-        <v>0.59350000000000003</v>
+        <v>0.48849999999999999</v>
       </c>
       <c r="AP4">
-        <v>0.58609999999999995</v>
+        <v>0.54339999999999999</v>
       </c>
       <c r="AQ4">
-        <v>0.64490000000000003</v>
+        <v>0.8952</v>
       </c>
       <c r="AR4">
-        <v>0.98380000000000001</v>
+        <v>0.63149999999999995</v>
       </c>
       <c r="AS4">
-        <v>0.7712</v>
+        <v>0.66149999999999998</v>
       </c>
       <c r="AT4">
-        <v>0.63560000000000005</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="AU4">
-        <v>0.53969999999999996</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="AV4">
-        <v>0.74160000000000004</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="AW4">
-        <v>0.65069999999999995</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="AX4">
-        <v>0.32490000000000002</v>
+        <v>0.58930000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.87690000000000001</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="B5">
-        <v>0.66490000000000005</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C5">
-        <v>0.40720000000000001</v>
+        <v>0.51049999999999995</v>
       </c>
       <c r="D5">
-        <v>0.66779999999999995</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="E5">
-        <v>0.86880000000000002</v>
+        <v>0.82979999999999998</v>
       </c>
       <c r="F5">
-        <v>0.79979999999999996</v>
+        <v>0.90580000000000005</v>
       </c>
       <c r="G5">
-        <v>0.39460000000000001</v>
+        <v>0.69010000000000005</v>
       </c>
       <c r="H5">
-        <v>0.43309999999999998</v>
+        <v>0.64610000000000001</v>
       </c>
       <c r="I5">
-        <v>0.7681</v>
+        <v>0.69840000000000002</v>
       </c>
       <c r="J5">
-        <v>0.5595</v>
+        <v>0.67310000000000003</v>
       </c>
       <c r="K5">
-        <v>0.97450000000000003</v>
+        <v>0.72489999999999999</v>
       </c>
       <c r="L5">
-        <v>0.65500000000000003</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="M5">
-        <v>0.93630000000000002</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="N5">
-        <v>0.89559999999999995</v>
+        <v>0.80410000000000004</v>
       </c>
       <c r="O5">
-        <v>0.79369999999999996</v>
+        <v>0.65859999999999996</v>
       </c>
       <c r="P5">
-        <v>0.88639999999999997</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="Q5">
-        <v>0.77159999999999995</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="R5">
-        <v>0.81089999999999995</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="S5">
-        <v>0.77400000000000002</v>
+        <v>0.55740000000000001</v>
       </c>
       <c r="T5">
-        <v>0.76729999999999998</v>
+        <v>0.73839999999999995</v>
       </c>
       <c r="U5">
-        <v>0.80079999999999996</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="V5">
-        <v>0.60219999999999996</v>
+        <v>0.58550000000000002</v>
       </c>
       <c r="W5">
-        <v>0.58765000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="X5">
-        <v>0.87519999999999998</v>
+        <v>0.41339999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.61560000000000004</v>
+        <v>0.66869999999999996</v>
       </c>
       <c r="Z5">
-        <v>0.8357</v>
+        <v>0.82420000000000004</v>
       </c>
       <c r="AA5">
-        <v>0.61985000000000001</v>
+        <v>0.67549999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.42959999999999998</v>
+        <v>0.58640000000000003</v>
       </c>
       <c r="AC5">
-        <v>0.93130000000000002</v>
+        <v>0.9607</v>
       </c>
       <c r="AD5">
-        <v>0.65369999999999995</v>
+        <v>0.72689999999999999</v>
       </c>
       <c r="AE5">
-        <v>0.72109999999999996</v>
+        <v>0.45419999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.83399999999999996</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="AG5">
-        <v>0.86099999999999999</v>
+        <v>0.52990000000000004</v>
       </c>
       <c r="AH5">
-        <v>0.5413</v>
+        <v>0.4027</v>
       </c>
       <c r="AI5">
-        <v>0.63180000000000003</v>
+        <v>0.44690000000000002</v>
       </c>
       <c r="AJ5">
-        <v>0.54449999999999998</v>
+        <v>0.96189999999999998</v>
       </c>
       <c r="AK5">
-        <v>0.62019999999999997</v>
+        <v>0.69979999999999998</v>
       </c>
       <c r="AL5">
-        <v>0.69079999999999997</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="AM5">
-        <v>0.55874999999999997</v>
+        <v>0.67069999999999996</v>
       </c>
       <c r="AN5">
-        <v>0.58230000000000004</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AO5">
-        <v>0.64510000000000001</v>
+        <v>0.33560000000000001</v>
       </c>
       <c r="AP5">
-        <v>0.58950000000000002</v>
+        <v>0.47289999999999999</v>
       </c>
       <c r="AQ5">
-        <v>0.4153</v>
+        <v>0.88270000000000004</v>
       </c>
       <c r="AR5">
-        <v>0.93799999999999994</v>
+        <v>0.69159999999999999</v>
       </c>
       <c r="AS5">
-        <v>0.7238</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="AT5">
-        <v>0.78169999999999995</v>
+        <v>0.79239999999999999</v>
       </c>
       <c r="AU5">
-        <v>0.54020000000000001</v>
+        <v>0.5554</v>
       </c>
       <c r="AV5">
-        <v>0.79020000000000001</v>
+        <v>0.59409999999999996</v>
       </c>
       <c r="AW5">
-        <v>0.64410000000000001</v>
+        <v>0.50819999999999999</v>
       </c>
       <c r="AX5">
-        <v>0.41670000000000001</v>
+        <v>0.66059999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.7571</v>
+        <v>0.4708</v>
       </c>
       <c r="B6">
-        <v>0.70599999999999996</v>
+        <v>0.48139999999999999</v>
       </c>
       <c r="C6">
-        <v>0.85299999999999998</v>
+        <v>0.84419999999999995</v>
       </c>
       <c r="D6">
-        <v>0.75670000000000004</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="E6">
-        <v>0.81769999999999998</v>
+        <v>0.82050000000000001</v>
       </c>
       <c r="F6">
-        <v>0.83079999999999998</v>
+        <v>0.90229999999999999</v>
       </c>
       <c r="G6">
-        <v>0.3518</v>
+        <v>0.90920000000000001</v>
       </c>
       <c r="H6">
-        <v>0.32850000000000001</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="I6">
-        <v>0.92900000000000005</v>
+        <v>0.72240000000000004</v>
       </c>
       <c r="J6">
-        <v>0.53310000000000002</v>
+        <v>0.5726</v>
       </c>
       <c r="K6">
-        <v>0.94340000000000002</v>
+        <v>0.81679999999999997</v>
       </c>
       <c r="L6">
-        <v>0.73829999999999996</v>
+        <v>0.53269999999999995</v>
       </c>
       <c r="M6">
-        <v>0.93120000000000003</v>
+        <v>0.79420000000000002</v>
       </c>
       <c r="N6">
-        <v>0.78280000000000005</v>
+        <v>0.74550000000000005</v>
       </c>
       <c r="O6">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="R6">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="S6">
+        <v>0.40849999999999997</v>
+      </c>
+      <c r="T6">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="U6">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="V6">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="W6">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="X6">
+        <v>0.3115</v>
+      </c>
+      <c r="Y6">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="Z6">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>0.71389999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="AC6">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="AE6">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="AF6">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="AG6">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="AH6">
+        <v>0.4239</v>
+      </c>
+      <c r="AI6">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="AK6">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="AL6">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="AM6">
+        <v>0.4728</v>
+      </c>
+      <c r="AN6">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="AO6">
+        <v>0.38529999999999998</v>
+      </c>
+      <c r="AP6">
+        <v>0.3987</v>
+      </c>
+      <c r="AQ6">
+        <v>0.79</v>
+      </c>
+      <c r="AR6">
         <v>0.79620000000000002</v>
       </c>
-      <c r="P6">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="Q6">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="R6">
-        <v>0.76910000000000001</v>
-      </c>
-      <c r="S6">
-        <v>0.88570000000000004</v>
-      </c>
-      <c r="T6">
-        <v>0.84650000000000003</v>
-      </c>
-      <c r="U6">
-        <v>0.77210000000000001</v>
-      </c>
-      <c r="V6">
-        <v>0.3639</v>
-      </c>
-      <c r="W6">
-        <v>0.39369999999999999</v>
-      </c>
-      <c r="X6">
-        <v>0.94340000000000002</v>
-      </c>
-      <c r="Y6">
-        <v>0.58150000000000002</v>
-      </c>
-      <c r="Z6">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="AA6">
-        <v>0.74880000000000002</v>
-      </c>
-      <c r="AB6">
-        <v>0.34710000000000002</v>
-      </c>
-      <c r="AC6">
-        <v>0.7782</v>
-      </c>
-      <c r="AD6">
-        <v>0.35260000000000002</v>
-      </c>
-      <c r="AE6">
-        <v>0.72950000000000004</v>
-      </c>
-      <c r="AF6">
-        <v>0.96530000000000005</v>
-      </c>
-      <c r="AG6">
-        <v>0.91720000000000002</v>
-      </c>
-      <c r="AH6">
-        <v>0.40710000000000002</v>
-      </c>
-      <c r="AI6">
-        <v>0.82779999999999998</v>
-      </c>
-      <c r="AJ6">
-        <v>0.35830000000000001</v>
-      </c>
-      <c r="AK6">
-        <v>0.5998</v>
-      </c>
-      <c r="AL6">
-        <v>0.6089</v>
-      </c>
-      <c r="AM6">
-        <v>0.29389999999999999</v>
-      </c>
-      <c r="AN6">
-        <v>0.49109999999999998</v>
-      </c>
-      <c r="AO6">
-        <v>0.66220000000000001</v>
-      </c>
-      <c r="AP6">
-        <v>0.51129999999999998</v>
-      </c>
-      <c r="AQ6">
-        <v>0.37290000000000001</v>
-      </c>
-      <c r="AR6">
-        <v>0.89090000000000003</v>
-      </c>
       <c r="AS6">
-        <v>0.64739999999999998</v>
+        <v>0.64659999999999995</v>
       </c>
       <c r="AT6">
-        <v>0.7359</v>
+        <v>0.86880000000000002</v>
       </c>
       <c r="AU6">
-        <v>0.69040000000000001</v>
+        <v>0.77539999999999998</v>
       </c>
       <c r="AV6">
-        <v>0.65820000000000001</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="AW6">
-        <v>0.62409999999999999</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="AX6">
-        <v>0.70650000000000002</v>
+        <v>0.69950000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.45</v>
+        <v>0.55320000000000003</v>
       </c>
       <c r="B7">
-        <v>0.6754</v>
+        <v>0.48139999999999999</v>
       </c>
       <c r="C7">
-        <v>0.92</v>
+        <v>0.83320000000000005</v>
       </c>
       <c r="D7">
-        <v>0.79710000000000003</v>
+        <v>0.66759999999999997</v>
       </c>
       <c r="E7">
-        <v>0.60660000000000003</v>
+        <v>0.77329999999999999</v>
       </c>
       <c r="F7">
-        <v>0.79379999999999995</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="G7">
-        <v>0.2261</v>
+        <v>0.73460000000000003</v>
       </c>
       <c r="H7">
-        <v>0.5696</v>
+        <v>0.93920000000000003</v>
       </c>
       <c r="I7">
-        <v>0.85840000000000005</v>
+        <v>0.7409</v>
       </c>
       <c r="J7">
-        <v>0.57799999999999996</v>
+        <v>0.49790000000000001</v>
       </c>
       <c r="K7">
-        <v>0.96389999999999998</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="L7">
-        <v>0.43769999999999998</v>
+        <v>0.35880000000000001</v>
       </c>
       <c r="M7">
-        <v>0.92710000000000004</v>
+        <v>0.7409</v>
       </c>
       <c r="N7">
-        <v>0.8901</v>
+        <v>0.69059999999999999</v>
       </c>
       <c r="O7">
-        <v>0.81910000000000005</v>
+        <v>0.38169999999999998</v>
       </c>
       <c r="P7">
-        <v>0.82040000000000002</v>
+        <v>0.4748</v>
       </c>
       <c r="Q7">
-        <v>0.77239999999999998</v>
+        <v>0.8196</v>
       </c>
       <c r="R7">
+        <v>0.82389999999999997</v>
+      </c>
+      <c r="S7">
+        <v>0.4778</v>
+      </c>
+      <c r="T7">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="U7">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="V7">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="W7">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="X7">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="Z7">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="AA7">
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>0.78490000000000004</v>
+      </c>
+      <c r="AC7">
         <v>0.78810000000000002</v>
       </c>
-      <c r="S7">
-        <v>0.74209999999999998</v>
-      </c>
-      <c r="T7">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="U7">
-        <v>0.65259999999999996</v>
-      </c>
-      <c r="V7">
-        <v>0.49609999999999999</v>
-      </c>
-      <c r="W7">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="X7">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="Y7">
-        <v>0.497</v>
-      </c>
-      <c r="Z7">
-        <v>0.72170000000000001</v>
-      </c>
-      <c r="AA7">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="AB7">
-        <v>0.5</v>
-      </c>
-      <c r="AC7">
-        <v>0.87949999999999995</v>
-      </c>
       <c r="AD7">
-        <v>0.3362</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="AE7">
-        <v>0.55330000000000001</v>
+        <v>0.67859999999999998</v>
       </c>
       <c r="AF7">
-        <v>0.8871</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="AG7">
-        <v>0.85299999999999998</v>
+        <v>0.22040000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.26050000000000001</v>
+        <v>0.3306</v>
       </c>
       <c r="AI7">
-        <v>0.72</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="AJ7">
-        <v>0.60599999999999998</v>
+        <v>0.82630000000000003</v>
       </c>
       <c r="AK7">
-        <v>0.34789999999999999</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="AL7">
-        <v>0.58460000000000001</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="AM7">
-        <v>0.23469999999999999</v>
+        <v>0.57130000000000003</v>
       </c>
       <c r="AN7">
-        <v>0.51790000000000003</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AO7">
-        <v>0.59530000000000005</v>
+        <v>0.50590000000000002</v>
       </c>
       <c r="AP7">
-        <v>0.45850000000000002</v>
+        <v>0.44269999999999998</v>
       </c>
       <c r="AQ7">
-        <v>0.37480000000000002</v>
+        <v>0.76819999999999999</v>
       </c>
       <c r="AR7">
-        <v>0.91359999999999997</v>
+        <v>0.58230000000000004</v>
       </c>
       <c r="AS7">
-        <v>0.7046</v>
+        <v>0.62690000000000001</v>
       </c>
       <c r="AT7">
-        <v>0.79990000000000006</v>
+        <v>0.90090000000000003</v>
       </c>
       <c r="AU7">
-        <v>0.54700000000000004</v>
+        <v>0.66169999999999995</v>
       </c>
       <c r="AV7">
-        <v>0.80500000000000005</v>
+        <v>0.62109999999999999</v>
       </c>
       <c r="AW7">
-        <v>0.66239999999999999</v>
+        <v>0.57830000000000004</v>
       </c>
       <c r="AX7">
-        <v>0.77300000000000002</v>
+        <v>0.56940000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.41310000000000002</v>
+        <v>0.5444</v>
       </c>
       <c r="B8">
-        <v>0.43280000000000002</v>
+        <v>0.44569999999999999</v>
       </c>
       <c r="C8">
-        <v>0.84379999999999999</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="D8">
-        <v>0.73550000000000004</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="E8">
-        <v>0.47560000000000002</v>
+        <v>0.80869999999999997</v>
       </c>
       <c r="F8">
-        <v>0.80410000000000004</v>
+        <v>0.90429999999999999</v>
       </c>
       <c r="G8">
-        <v>6.2700000000000006E-2</v>
+        <v>0.65380000000000005</v>
       </c>
       <c r="H8">
-        <v>0.68479999999999996</v>
+        <v>0.87560000000000004</v>
       </c>
       <c r="I8">
-        <v>0.79039999999999999</v>
+        <v>0.79239999999999999</v>
       </c>
       <c r="J8">
-        <v>0.51680000000000004</v>
+        <v>0.41539999999999999</v>
       </c>
       <c r="K8">
-        <v>0.86370000000000002</v>
+        <v>0.60680000000000001</v>
       </c>
       <c r="L8">
-        <v>0.2954</v>
+        <v>0.61450000000000005</v>
       </c>
       <c r="M8">
-        <v>0.93110000000000004</v>
+        <v>0.8397</v>
       </c>
       <c r="N8">
-        <v>0.88900000000000001</v>
+        <v>0.49719999999999998</v>
       </c>
       <c r="O8">
-        <v>0.90269999999999995</v>
+        <v>0.33119999999999999</v>
       </c>
       <c r="P8">
-        <v>0.69230000000000003</v>
+        <v>0.50570000000000004</v>
       </c>
       <c r="Q8">
-        <v>0.76219999999999999</v>
+        <v>0.85309999999999997</v>
       </c>
       <c r="R8">
-        <v>0.73570000000000002</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="S8">
-        <v>0.67910000000000004</v>
+        <v>0.70689999999999997</v>
       </c>
       <c r="T8">
-        <v>0.92169999999999996</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="U8">
-        <v>0.82650000000000001</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="V8">
-        <v>0.47620000000000001</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="W8">
-        <v>0.49890000000000001</v>
+        <v>0.87570000000000003</v>
       </c>
       <c r="X8">
-        <v>0.9123</v>
+        <v>0.64629999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.66739999999999999</v>
+        <v>0.4909</v>
       </c>
       <c r="Z8">
-        <v>0.59540000000000004</v>
+        <v>0.56830000000000003</v>
       </c>
       <c r="AA8">
-        <v>0.63959999999999995</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="AB8">
-        <v>0.4637</v>
+        <v>0.75149999999999995</v>
       </c>
       <c r="AC8">
-        <v>0.98170000000000002</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="AD8">
-        <v>0.47720000000000001</v>
+        <v>0.75790000000000002</v>
       </c>
       <c r="AE8">
-        <v>0.62790000000000001</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.82920000000000005</v>
+        <v>0.59830000000000005</v>
       </c>
       <c r="AG8">
-        <v>0.96120000000000005</v>
+        <v>0.2291</v>
       </c>
       <c r="AH8">
-        <v>0.16309999999999999</v>
+        <v>0.26950000000000002</v>
       </c>
       <c r="AI8">
-        <v>0.57320000000000004</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="AJ8">
-        <v>0.48494999999999999</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="AK8">
-        <v>0.45290000000000002</v>
+        <v>0.49459999999999998</v>
       </c>
       <c r="AL8">
-        <v>0.70109999999999995</v>
+        <v>0.49430000000000002</v>
       </c>
       <c r="AM8">
-        <v>0.2621</v>
+        <v>0.40350000000000003</v>
       </c>
       <c r="AN8">
-        <v>0.47299999999999998</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="AO8">
-        <v>0.73829999999999996</v>
+        <v>0.53469999999999995</v>
       </c>
       <c r="AP8">
-        <v>0.54159999999999997</v>
+        <v>0.27950000000000003</v>
       </c>
       <c r="AQ8">
-        <v>0.45340000000000003</v>
+        <v>0.60429999999999995</v>
       </c>
       <c r="AR8">
-        <v>0.87929999999999997</v>
+        <v>0.45929999999999999</v>
       </c>
       <c r="AS8">
-        <v>0.81110000000000004</v>
+        <v>0.54990000000000006</v>
       </c>
       <c r="AT8">
-        <v>0.82889999999999997</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="AU8">
-        <v>0.38479999999999998</v>
+        <v>0.49559999999999998</v>
       </c>
       <c r="AV8">
-        <v>0.76749999999999996</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="AW8">
-        <v>0.72960000000000003</v>
+        <v>0.37769999999999998</v>
       </c>
       <c r="AX8">
-        <v>0.63060000000000005</v>
+        <v>0.35830000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.19700000000000001</v>
+        <v>0.48089999999999999</v>
       </c>
       <c r="B9">
-        <v>0.49909999999999999</v>
+        <v>0.21149999999999999</v>
       </c>
       <c r="C9">
-        <v>0.48480000000000001</v>
+        <v>0.84560000000000002</v>
       </c>
       <c r="D9">
-        <v>0.61260000000000003</v>
+        <v>0.8216</v>
       </c>
       <c r="E9">
-        <v>0.35249999999999998</v>
+        <v>0.86260000000000003</v>
       </c>
       <c r="F9">
-        <v>0.61670000000000003</v>
+        <v>0.80120000000000002</v>
       </c>
       <c r="G9">
-        <v>0.1057</v>
+        <v>0.5534</v>
       </c>
       <c r="H9">
-        <v>0.49640000000000001</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="I9">
-        <v>0.66649999999999998</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="J9">
-        <v>0.66839999999999999</v>
+        <v>0.55669999999999997</v>
       </c>
       <c r="K9">
-        <v>0.8498</v>
+        <v>0.51680000000000004</v>
       </c>
       <c r="L9">
-        <v>0.42380000000000001</v>
+        <v>0.51419999999999999</v>
       </c>
       <c r="M9">
-        <v>0.81530000000000002</v>
+        <v>0.8982</v>
       </c>
       <c r="N9">
-        <v>0.94430000000000003</v>
+        <v>0.4118</v>
       </c>
       <c r="O9">
-        <v>0.83399999999999996</v>
+        <v>0.3196</v>
       </c>
       <c r="P9">
-        <v>0.83530000000000004</v>
+        <v>0.49130000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.8</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="R9">
-        <v>0.66210000000000002</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="S9">
-        <v>0.55210000000000004</v>
+        <v>0.81379999999999997</v>
       </c>
       <c r="T9">
-        <v>0.93779999999999997</v>
+        <v>0.7107</v>
       </c>
       <c r="U9">
-        <v>0.81100000000000005</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="V9">
-        <v>0.50290000000000001</v>
+        <v>0.754</v>
       </c>
       <c r="W9">
-        <v>0.46850000000000003</v>
+        <v>0.81289999999999996</v>
       </c>
       <c r="X9">
-        <v>0.82779999999999998</v>
+        <v>0.68220000000000003</v>
       </c>
       <c r="Y9">
-        <v>0.52639999999999998</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.48780000000000001</v>
+        <v>0.71230000000000004</v>
       </c>
       <c r="AA9">
-        <v>0.53959999999999997</v>
+        <v>0.41789999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.37069999999999997</v>
+        <v>0.79669999999999996</v>
       </c>
       <c r="AC9">
-        <v>0.96409999999999996</v>
+        <v>0.82140000000000002</v>
       </c>
       <c r="AD9">
-        <v>0.50260000000000005</v>
+        <v>0.66469999999999996</v>
       </c>
       <c r="AE9">
-        <v>0.3891</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="AF9">
-        <v>0.65510000000000002</v>
+        <v>0.56140000000000001</v>
       </c>
       <c r="AG9">
-        <v>0.96079999999999999</v>
+        <v>0.35139999999999999</v>
       </c>
       <c r="AH9">
-        <v>5.2200000000000003E-2</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="AI9">
-        <v>0.64549999999999996</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="AJ9">
-        <v>0.52470000000000006</v>
+        <v>0.64049999999999996</v>
       </c>
       <c r="AK9">
-        <v>0.73909999999999998</v>
+        <v>0.32250000000000001</v>
       </c>
       <c r="AL9">
-        <v>0.77710000000000001</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="AM9">
-        <v>0.22500000000000001</v>
+        <v>0.61639999999999995</v>
       </c>
       <c r="AN9">
-        <v>0.46189999999999998</v>
+        <v>0.58740000000000003</v>
       </c>
       <c r="AO9">
-        <v>0.65500000000000003</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="AP9">
-        <v>0.47399999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="AQ9">
-        <v>0.41710000000000003</v>
+        <v>0.37830000000000003</v>
       </c>
       <c r="AR9">
-        <v>0.85099999999999998</v>
+        <v>0.51549999999999996</v>
       </c>
       <c r="AS9">
-        <v>0.79420000000000002</v>
+        <v>0.74060000000000004</v>
       </c>
       <c r="AT9">
-        <v>0.80049999999999999</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="AU9">
-        <v>0.34560000000000002</v>
+        <v>0.37490000000000001</v>
       </c>
       <c r="AV9">
-        <v>0.90300000000000002</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="AW9">
-        <v>0.53259999999999996</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AX9">
-        <v>0.75470000000000004</v>
+        <v>0.16739999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.23930000000000001</v>
+        <v>0.32340000000000002</v>
       </c>
       <c r="B10">
-        <v>0.45569999999999999</v>
+        <v>0.34289999999999998</v>
       </c>
       <c r="C10">
-        <v>0.32469999999999999</v>
+        <v>0.78669999999999995</v>
       </c>
       <c r="D10">
-        <v>0.79549999999999998</v>
+        <v>0.7208</v>
       </c>
       <c r="E10">
-        <v>0.37490000000000001</v>
+        <v>0.78269999999999995</v>
       </c>
       <c r="F10">
-        <v>0.69969999999999999</v>
+        <v>0.91120000000000001</v>
       </c>
       <c r="G10">
-        <v>6.0199999999999997E-2</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="H10">
-        <v>0.51070000000000004</v>
+        <v>0.3498</v>
       </c>
       <c r="I10">
-        <v>0.70750000000000002</v>
+        <v>0.624</v>
       </c>
       <c r="J10">
-        <v>0.64429999999999998</v>
+        <v>0.52929999999999999</v>
       </c>
       <c r="K10">
-        <v>0.74809999999999999</v>
+        <v>0.48859999999999998</v>
       </c>
       <c r="L10">
-        <v>0.31809999999999999</v>
+        <v>0.58579999999999999</v>
       </c>
       <c r="M10">
-        <v>0.66569999999999996</v>
+        <v>0.74619999999999997</v>
       </c>
       <c r="N10">
-        <v>0.90880000000000005</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="O10">
-        <v>0.84789999999999999</v>
+        <v>0.49690000000000001</v>
       </c>
       <c r="P10">
-        <v>0.62290000000000001</v>
+        <v>0.1855</v>
       </c>
       <c r="Q10">
-        <v>0.75249999999999995</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="R10">
-        <v>0.56289999999999996</v>
+        <v>0.85009999999999997</v>
       </c>
       <c r="S10">
-        <v>0.63270000000000004</v>
+        <v>0.82269999999999999</v>
       </c>
       <c r="T10">
-        <v>0.9476</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="U10">
-        <v>0.72299999999999998</v>
+        <v>0.8347</v>
       </c>
       <c r="V10">
-        <v>0.496</v>
+        <v>0.82279999999999998</v>
       </c>
       <c r="W10">
-        <v>0.51680000000000004</v>
+        <v>0.78490000000000004</v>
       </c>
       <c r="X10">
-        <v>0.90600000000000003</v>
+        <v>0.72770000000000001</v>
       </c>
       <c r="Y10">
-        <v>0.33539999999999998</v>
+        <v>0.36809999999999998</v>
       </c>
       <c r="Z10">
-        <v>0.51480000000000004</v>
+        <v>0.62070000000000003</v>
       </c>
       <c r="AA10">
-        <v>0.56240000000000001</v>
+        <v>0.42109999999999997</v>
       </c>
       <c r="AB10">
-        <v>0.37209999999999999</v>
+        <v>0.85909999999999997</v>
       </c>
       <c r="AC10">
-        <v>0.84279999999999999</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="AD10">
-        <v>0.52580000000000005</v>
+        <v>0.56220000000000003</v>
       </c>
       <c r="AE10">
-        <v>0.4551</v>
+        <v>0.70850000000000002</v>
       </c>
       <c r="AF10">
-        <v>0.78969999999999996</v>
+        <v>0.40710000000000002</v>
       </c>
       <c r="AG10">
-        <v>0.98780000000000001</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="AH10">
-        <v>6.2799999999999995E-2</v>
+        <v>0.32990000000000003</v>
       </c>
       <c r="AI10">
-        <v>0.64670000000000005</v>
+        <v>0.72670000000000001</v>
       </c>
       <c r="AJ10">
-        <v>0.78759999999999997</v>
+        <v>0.50209999999999999</v>
       </c>
       <c r="AK10">
-        <v>0.73809999999999998</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="AL10">
-        <v>0.81020000000000003</v>
+        <v>0.33610000000000001</v>
       </c>
       <c r="AM10">
-        <v>0.51249999999999996</v>
+        <v>0.75990000000000002</v>
       </c>
       <c r="AN10">
-        <v>0.48249999999999998</v>
+        <v>0.7661</v>
       </c>
       <c r="AO10">
-        <v>0.61880000000000002</v>
+        <v>0.2253</v>
       </c>
       <c r="AP10">
-        <v>0.53269999999999995</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="AQ10">
-        <v>0.3574</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="AR10">
-        <v>0.81869999999999998</v>
+        <v>0.36919999999999997</v>
       </c>
       <c r="AS10">
-        <v>0.73519999999999996</v>
+        <v>0.57330000000000003</v>
       </c>
       <c r="AT10">
-        <v>0.8196</v>
+        <v>0.94289999999999996</v>
       </c>
       <c r="AU10">
-        <v>0.3775</v>
+        <v>0.39560000000000001</v>
       </c>
       <c r="AV10">
-        <v>0.86380000000000001</v>
+        <v>0.58960000000000001</v>
       </c>
       <c r="AW10">
-        <v>0.45829999999999999</v>
+        <v>0.57010000000000005</v>
       </c>
       <c r="AX10">
-        <v>0.62219999999999998</v>
+        <v>0.1381</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.5000000000000001E-2</v>
+        <v>0.52280000000000004</v>
       </c>
       <c r="B11">
-        <v>0.2462</v>
+        <v>0.70289999999999997</v>
       </c>
       <c r="C11">
-        <v>0.1183</v>
+        <v>0.77280000000000004</v>
       </c>
       <c r="D11">
-        <v>0.68130000000000002</v>
+        <v>0.59440000000000004</v>
       </c>
       <c r="E11">
-        <v>0.47560000000000002</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="F11">
-        <v>0.44209999999999999</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="G11">
-        <v>9.0800000000000006E-2</v>
+        <v>0.4476</v>
       </c>
       <c r="H11">
-        <v>0.40250000000000002</v>
+        <v>0.59840000000000004</v>
       </c>
       <c r="I11">
-        <v>0.5968</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="J11">
-        <v>0.57020000000000004</v>
+        <v>0.60029999999999994</v>
       </c>
       <c r="K11">
-        <v>0.63080000000000003</v>
+        <v>0.54679999999999995</v>
       </c>
       <c r="L11">
-        <v>0.47210000000000002</v>
+        <v>0.37490000000000001</v>
       </c>
       <c r="M11">
-        <v>0.60309999999999997</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="N11">
-        <v>0.91300000000000003</v>
+        <v>0.48170000000000002</v>
       </c>
       <c r="O11">
-        <v>0.73670000000000002</v>
+        <v>0.48549999999999999</v>
       </c>
       <c r="P11">
-        <v>0.77480000000000004</v>
+        <v>0.28220000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.66490000000000005</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="R11">
-        <v>0.57099999999999995</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="S11">
-        <v>0.58699999999999997</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="T11">
-        <v>0.90490000000000004</v>
+        <v>0.64339999999999997</v>
       </c>
       <c r="U11">
-        <v>0.80969999999999998</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="V11">
-        <v>0.33500000000000002</v>
+        <v>0.82720000000000005</v>
       </c>
       <c r="W11">
-        <v>0.53210000000000002</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="X11">
-        <v>0.80589999999999995</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="Y11">
-        <v>0.58550000000000002</v>
+        <v>0.28760000000000002</v>
       </c>
       <c r="Z11">
-        <v>0.70340000000000003</v>
+        <v>0.74350000000000005</v>
       </c>
       <c r="AA11">
-        <v>0.72470000000000001</v>
+        <v>0.20780000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.39689999999999998</v>
+        <v>0.69820000000000004</v>
       </c>
       <c r="AC11">
-        <v>0.70389999999999997</v>
+        <v>0.72089999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.46139999999999998</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="AE11">
-        <v>0.4582</v>
+        <v>0.57220000000000004</v>
       </c>
       <c r="AF11">
-        <v>0.73550000000000004</v>
+        <v>0.39140000000000003</v>
       </c>
       <c r="AG11">
-        <v>0.99299999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="AH11">
-        <v>4.7899999999999998E-2</v>
+        <v>0.59619999999999995</v>
       </c>
       <c r="AI11">
-        <v>0.57389999999999997</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="AJ11">
-        <v>0.78190000000000004</v>
+        <v>0.312</v>
       </c>
       <c r="AK11">
-        <v>0.61870000000000003</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.77470000000000006</v>
+        <v>0.49</v>
       </c>
       <c r="AM11">
-        <v>0.38650000000000001</v>
+        <v>0.79249999999999998</v>
       </c>
       <c r="AN11">
-        <v>0.38</v>
+        <v>0.69430000000000003</v>
       </c>
       <c r="AO11">
-        <v>0.62290000000000001</v>
+        <v>0.39560000000000001</v>
       </c>
       <c r="AP11">
-        <v>0.51859999999999995</v>
+        <v>0.64259999999999995</v>
       </c>
       <c r="AQ11">
-        <v>0.25240000000000001</v>
+        <v>0.8528</v>
       </c>
       <c r="AR11">
-        <v>0.84250000000000003</v>
+        <v>0.17530000000000001</v>
       </c>
       <c r="AS11">
-        <v>0.61580000000000001</v>
+        <v>0.56879999999999997</v>
       </c>
       <c r="AT11">
-        <v>0.88580000000000003</v>
+        <v>0.94840000000000002</v>
       </c>
       <c r="AU11">
-        <v>0.51429999999999998</v>
+        <v>0.3221</v>
       </c>
       <c r="AV11">
-        <v>0.84789999999999999</v>
+        <v>0.65429999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.54210000000000003</v>
+        <v>0.58169999999999999</v>
       </c>
       <c r="AX11">
-        <v>0.53949999999999998</v>
+        <v>7.0800000000000002E-2</v>
       </c>
     </row>
   </sheetData>
